--- a/Lab 1.3/Traceability Matrix.xlsx
+++ b/Lab 1.3/Traceability Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FPT\Documents\HK5\SE357\SE357-Practice-class\Lab 1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF82800-D506-4FAF-8AC3-9036C238D447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB7DAC4-C512-421A-BF68-3ACD1FF379E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linkable Traceability Matrix" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="112">
   <si>
     <t>Login</t>
   </si>
@@ -367,18 +367,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>33 -&gt; 16</t>
-  </si>
-  <si>
-    <t>43 -&gt; 33</t>
-  </si>
-  <si>
-    <t>38 -&gt; 33, 34 R</t>
-  </si>
-  <si>
-    <t>16 -&gt; 18, 19 R</t>
   </si>
 </sst>
 </file>
@@ -739,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView topLeftCell="C5" zoomScale="74" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3778,8 +3766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562608F9-AFD2-4706-9F88-B98A0FC61F45}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:A50"/>
+    <sheetView topLeftCell="A5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4976,10 +4964,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D2796B-55FF-4025-AA08-782548CC0462}">
-  <dimension ref="B2:F50"/>
+  <dimension ref="B2:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5107,18 +5095,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
@@ -5126,7 +5111,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -5134,7 +5119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
@@ -5142,7 +5127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -5150,7 +5135,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>51</v>
       </c>
@@ -5158,7 +5143,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
@@ -5166,7 +5151,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>53</v>
       </c>
@@ -5174,7 +5159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>54</v>
       </c>
@@ -5182,7 +5167,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>55</v>
       </c>
@@ -5190,7 +5175,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
@@ -5198,7 +5183,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>57</v>
       </c>
@@ -5206,7 +5191,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
@@ -5214,7 +5199,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
@@ -5222,7 +5207,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
@@ -5230,7 +5215,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
@@ -5238,7 +5223,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>62</v>
       </c>
@@ -5246,18 +5231,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>64</v>
       </c>
@@ -5265,7 +5247,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>65</v>
       </c>
@@ -5273,7 +5255,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>81</v>
       </c>
@@ -5281,7 +5263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>82</v>
       </c>
@@ -5289,18 +5271,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>84</v>
       </c>
@@ -5308,7 +5287,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>85</v>
       </c>
@@ -5316,7 +5295,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>86</v>
       </c>
@@ -5324,7 +5303,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>87</v>
       </c>
@@ -5332,18 +5311,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>89</v>
       </c>
@@ -5351,7 +5327,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>90</v>
       </c>
@@ -5359,7 +5335,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>91</v>
       </c>
@@ -5367,7 +5343,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>92</v>
       </c>
